--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="H2">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="I2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="J2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N2">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q2">
-        <v>3.414597666769</v>
+        <v>1.973656907161</v>
       </c>
       <c r="R2">
-        <v>30.731379000921</v>
+        <v>17.762912164449</v>
       </c>
       <c r="S2">
-        <v>0.5324380677884507</v>
+        <v>0.4479248178006813</v>
       </c>
       <c r="T2">
-        <v>0.5324380677884507</v>
+        <v>0.4479248178006816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="H3">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="I3">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="J3">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>1.983909</v>
       </c>
       <c r="O3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q3">
-        <v>1.221997345489</v>
+        <v>0.9290440843069999</v>
       </c>
       <c r="R3">
-        <v>10.997976109401</v>
+        <v>8.361396758763</v>
       </c>
       <c r="S3">
-        <v>0.190545993692555</v>
+        <v>0.2108481472550423</v>
       </c>
       <c r="T3">
-        <v>0.190545993692555</v>
+        <v>0.2108481472550423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="H4">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="I4">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="J4">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N4">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q4">
-        <v>0.042964662613</v>
+        <v>0.04626046301133333</v>
       </c>
       <c r="R4">
-        <v>0.386681963517</v>
+        <v>0.416344167102</v>
       </c>
       <c r="S4">
-        <v>0.006699477999261453</v>
+        <v>0.01049889136786849</v>
       </c>
       <c r="T4">
-        <v>0.006699477999261453</v>
+        <v>0.01049889136786849</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>1.983909</v>
       </c>
       <c r="I5">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="J5">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N5">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q5">
-        <v>1.221997345489</v>
+        <v>0.9290440843069999</v>
       </c>
       <c r="R5">
-        <v>10.997976109401</v>
+        <v>8.361396758763</v>
       </c>
       <c r="S5">
-        <v>0.190545993692555</v>
+        <v>0.2108481472550423</v>
       </c>
       <c r="T5">
-        <v>0.190545993692555</v>
+        <v>0.2108481472550423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>1.983909</v>
       </c>
       <c r="I6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="J6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>1.983909</v>
       </c>
       <c r="O6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q6">
         <v>0.437321657809</v>
@@ -815,10 +815,10 @@
         <v>3.935894920281</v>
       </c>
       <c r="S6">
-        <v>0.06819154735327658</v>
+        <v>0.09925089978083451</v>
       </c>
       <c r="T6">
-        <v>0.06819154735327658</v>
+        <v>0.09925089978083454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>1.983909</v>
       </c>
       <c r="I7">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="J7">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -859,28 +859,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N7">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q7">
-        <v>0.015375956053</v>
+        <v>0.02177582605266667</v>
       </c>
       <c r="R7">
-        <v>0.138383604477</v>
+        <v>0.195982434474</v>
       </c>
       <c r="S7">
-        <v>0.002397572168145364</v>
+        <v>0.004942061045012407</v>
       </c>
       <c r="T7">
-        <v>0.002397572168145364</v>
+        <v>0.004942061045012408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,46 +903,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="H8">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="I8">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="J8">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N8">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q8">
-        <v>0.042964662613</v>
+        <v>0.04626046301133333</v>
       </c>
       <c r="R8">
-        <v>0.386681963517</v>
+        <v>0.416344167102</v>
       </c>
       <c r="S8">
-        <v>0.006699477999261453</v>
+        <v>0.01049889136786849</v>
       </c>
       <c r="T8">
-        <v>0.006699477999261453</v>
+        <v>0.01049889136786849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="H9">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="I9">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="J9">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>1.983909</v>
       </c>
       <c r="O9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q9">
-        <v>0.015375956053</v>
+        <v>0.02177582605266667</v>
       </c>
       <c r="R9">
-        <v>0.138383604477</v>
+        <v>0.195982434474</v>
       </c>
       <c r="S9">
-        <v>0.002397572168145364</v>
+        <v>0.004942061045012407</v>
       </c>
       <c r="T9">
-        <v>0.002397572168145364</v>
+        <v>0.004942061045012408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="H10">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="I10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="J10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1045,28 +1045,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N10">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q10">
-        <v>0.0005406090009999998</v>
+        <v>0.001084297088444445</v>
       </c>
       <c r="R10">
-        <v>0.004865481008999999</v>
+        <v>0.009758673795999999</v>
       </c>
       <c r="S10">
-        <v>8.429713834890793E-05</v>
+        <v>0.0002460830826376592</v>
       </c>
       <c r="T10">
-        <v>8.429713834890793E-05</v>
+        <v>0.0002460830826376592</v>
       </c>
     </row>
   </sheetData>
